--- a/biology/Zoologie/Dipsadoboa_brevirostris/Dipsadoboa_brevirostris.xlsx
+++ b/biology/Zoologie/Dipsadoboa_brevirostris/Dipsadoboa_brevirostris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsadoboa brevirostris est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsadoboa brevirostris est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de la Sierra Leone jusqu'à l'Ouest du Cameroun[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de la Sierra Leone jusqu'à l'Ouest du Cameroun.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[3] Sternfeld indique que les deux adultes en sa possession mesurent 87 et 107 cm. Il précise que cette espèce, qu'il décrit sous le genre Dipsadomorphus, s'apparente également au genre Dipsadoboa où elle sera finalement classée par Rasmussen[2] en 1989.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Sternfeld indique que les deux adultes en sa possession mesurent 87 et 107 cm. Il précise que cette espèce, qu'il décrit sous le genre Dipsadomorphus, s'apparente également au genre Dipsadoboa où elle sera finalement classée par Rasmussen en 1989.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin brevis, « court », et rostris, « museau », lui a été donné en référence à sa morphologie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin brevis, « court », et rostris, « museau », lui a été donné en référence à sa morphologie.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sternfeld, 1908 : Die Schlangenfauna von Kamerun. Mitteilung aus dem Zoologischen Museum in Berlin, vol. 3, no 4, p. 397-432 (texte intégral).</t>
         </is>
